--- a/project/ppt/김영민_개발 스케줄.xlsx
+++ b/project/ppt/김영민_개발 스케줄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developer\workspace\HTML\project\ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B776436A-EB99-4D90-8EF6-5C1D6FEEBA70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EE1A73-6A7B-4F4B-8172-596D17AE61BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
   <si>
     <t>번호</t>
   </si>
@@ -202,149 +202,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용자 관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업체 관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게시판 답글 구현</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>업체</t>
     </r>
     <r>
@@ -565,6 +422,22 @@
   </si>
   <si>
     <t>검색 기능 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스프링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 커넥터</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +565,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,18 +646,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -813,6 +674,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -826,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,35 +772,31 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -926,6 +813,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1144,13 +1042,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:EG29"/>
+  <dimension ref="A1:EG42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BE13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="BB4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z37" sqref="Z37"/>
+      <selection pane="bottomRight" activeCell="CX38" sqref="CX38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1165,151 +1063,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:137" ht="12.75">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57">
+      <c r="F1" s="55">
         <v>2022</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
-      <c r="BS1" s="57"/>
-      <c r="BT1" s="57"/>
-      <c r="BU1" s="57"/>
-      <c r="BV1" s="57"/>
-      <c r="BW1" s="57">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="55"/>
+      <c r="BF1" s="55"/>
+      <c r="BG1" s="55"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="55"/>
+      <c r="BL1" s="55"/>
+      <c r="BM1" s="55"/>
+      <c r="BN1" s="55"/>
+      <c r="BO1" s="55"/>
+      <c r="BP1" s="55"/>
+      <c r="BQ1" s="55"/>
+      <c r="BR1" s="55"/>
+      <c r="BS1" s="55"/>
+      <c r="BT1" s="55"/>
+      <c r="BU1" s="55"/>
+      <c r="BV1" s="55"/>
+      <c r="BW1" s="55">
         <v>2023</v>
       </c>
-      <c r="BX1" s="57"/>
-      <c r="BY1" s="57"/>
-      <c r="BZ1" s="57"/>
-      <c r="CA1" s="57"/>
-      <c r="CB1" s="57"/>
-      <c r="CC1" s="57"/>
-      <c r="CD1" s="57"/>
-      <c r="CE1" s="57"/>
-      <c r="CF1" s="57"/>
-      <c r="CG1" s="57"/>
-      <c r="CH1" s="57"/>
-      <c r="CI1" s="57"/>
-      <c r="CJ1" s="57"/>
-      <c r="CK1" s="57"/>
-      <c r="CL1" s="57"/>
-      <c r="CM1" s="57"/>
-      <c r="CN1" s="57"/>
-      <c r="CO1" s="57"/>
-      <c r="CP1" s="57"/>
-      <c r="CQ1" s="57"/>
-      <c r="CR1" s="57"/>
-      <c r="CS1" s="57"/>
-      <c r="CT1" s="57"/>
-      <c r="CU1" s="57"/>
-      <c r="CV1" s="57"/>
-      <c r="CW1" s="57"/>
-      <c r="CX1" s="57"/>
-      <c r="CY1" s="57"/>
-      <c r="CZ1" s="57"/>
-      <c r="DA1" s="57"/>
-      <c r="DB1" s="57">
+      <c r="BX1" s="55"/>
+      <c r="BY1" s="55"/>
+      <c r="BZ1" s="55"/>
+      <c r="CA1" s="55"/>
+      <c r="CB1" s="55"/>
+      <c r="CC1" s="55"/>
+      <c r="CD1" s="55"/>
+      <c r="CE1" s="55"/>
+      <c r="CF1" s="55"/>
+      <c r="CG1" s="55"/>
+      <c r="CH1" s="55"/>
+      <c r="CI1" s="55"/>
+      <c r="CJ1" s="55"/>
+      <c r="CK1" s="55"/>
+      <c r="CL1" s="55"/>
+      <c r="CM1" s="55"/>
+      <c r="CN1" s="55"/>
+      <c r="CO1" s="55"/>
+      <c r="CP1" s="55"/>
+      <c r="CQ1" s="55"/>
+      <c r="CR1" s="55"/>
+      <c r="CS1" s="55"/>
+      <c r="CT1" s="55"/>
+      <c r="CU1" s="55"/>
+      <c r="CV1" s="55"/>
+      <c r="CW1" s="55"/>
+      <c r="CX1" s="55"/>
+      <c r="CY1" s="55"/>
+      <c r="CZ1" s="55"/>
+      <c r="DA1" s="55"/>
+      <c r="DB1" s="55">
         <v>2023</v>
       </c>
-      <c r="DC1" s="57"/>
-      <c r="DD1" s="57"/>
-      <c r="DE1" s="57"/>
-      <c r="DF1" s="57"/>
-      <c r="DG1" s="57"/>
-      <c r="DH1" s="57"/>
-      <c r="DI1" s="57"/>
-      <c r="DJ1" s="57"/>
-      <c r="DK1" s="57"/>
-      <c r="DL1" s="57"/>
-      <c r="DM1" s="57"/>
-      <c r="DN1" s="57"/>
-      <c r="DO1" s="57"/>
-      <c r="DP1" s="57"/>
-      <c r="DQ1" s="57"/>
-      <c r="DR1" s="57"/>
-      <c r="DS1" s="57"/>
-      <c r="DT1" s="57"/>
-      <c r="DU1" s="57"/>
-      <c r="DV1" s="57"/>
-      <c r="DW1" s="57"/>
-      <c r="DX1" s="57"/>
-      <c r="DY1" s="57"/>
+      <c r="DC1" s="55"/>
+      <c r="DD1" s="55"/>
+      <c r="DE1" s="55"/>
+      <c r="DF1" s="55"/>
+      <c r="DG1" s="55"/>
+      <c r="DH1" s="55"/>
+      <c r="DI1" s="55"/>
+      <c r="DJ1" s="55"/>
+      <c r="DK1" s="55"/>
+      <c r="DL1" s="55"/>
+      <c r="DM1" s="55"/>
+      <c r="DN1" s="55"/>
+      <c r="DO1" s="55"/>
+      <c r="DP1" s="55"/>
+      <c r="DQ1" s="55"/>
+      <c r="DR1" s="55"/>
+      <c r="DS1" s="55"/>
+      <c r="DT1" s="55"/>
+      <c r="DU1" s="55"/>
+      <c r="DV1" s="55"/>
+      <c r="DW1" s="55"/>
+      <c r="DX1" s="55"/>
+      <c r="DY1" s="55"/>
       <c r="DZ1" s="2"/>
       <c r="EA1" s="2"/>
       <c r="EB1" s="2"/>
@@ -1320,145 +1218,145 @@
       <c r="EG1" s="2"/>
     </row>
     <row r="2" spans="1:137" ht="12.75">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="55">
         <v>10</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="57">
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="55">
         <v>11</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="57">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="55">
         <v>12</v>
       </c>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57"/>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57"/>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="57"/>
-      <c r="BP2" s="57"/>
-      <c r="BQ2" s="57"/>
-      <c r="BR2" s="57"/>
-      <c r="BS2" s="57"/>
-      <c r="BT2" s="57"/>
-      <c r="BU2" s="57"/>
-      <c r="BV2" s="57"/>
-      <c r="BW2" s="57">
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="55"/>
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="55"/>
+      <c r="BV2" s="55"/>
+      <c r="BW2" s="55">
         <v>1</v>
       </c>
-      <c r="BX2" s="57"/>
-      <c r="BY2" s="57"/>
-      <c r="BZ2" s="57"/>
-      <c r="CA2" s="57"/>
-      <c r="CB2" s="57"/>
-      <c r="CC2" s="57"/>
-      <c r="CD2" s="57"/>
-      <c r="CE2" s="57"/>
-      <c r="CF2" s="57"/>
-      <c r="CG2" s="57"/>
-      <c r="CH2" s="57"/>
-      <c r="CI2" s="57"/>
-      <c r="CJ2" s="57"/>
-      <c r="CK2" s="57"/>
-      <c r="CL2" s="57"/>
-      <c r="CM2" s="57"/>
-      <c r="CN2" s="57"/>
-      <c r="CO2" s="57"/>
-      <c r="CP2" s="57"/>
-      <c r="CQ2" s="57"/>
-      <c r="CR2" s="57"/>
-      <c r="CS2" s="57"/>
-      <c r="CT2" s="57"/>
-      <c r="CU2" s="57"/>
-      <c r="CV2" s="57"/>
-      <c r="CW2" s="57"/>
-      <c r="CX2" s="57"/>
-      <c r="CY2" s="57"/>
-      <c r="CZ2" s="57"/>
-      <c r="DA2" s="57"/>
-      <c r="DB2" s="57">
+      <c r="BX2" s="55"/>
+      <c r="BY2" s="55"/>
+      <c r="BZ2" s="55"/>
+      <c r="CA2" s="55"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="55"/>
+      <c r="CD2" s="55"/>
+      <c r="CE2" s="55"/>
+      <c r="CF2" s="55"/>
+      <c r="CG2" s="55"/>
+      <c r="CH2" s="55"/>
+      <c r="CI2" s="55"/>
+      <c r="CJ2" s="55"/>
+      <c r="CK2" s="55"/>
+      <c r="CL2" s="55"/>
+      <c r="CM2" s="55"/>
+      <c r="CN2" s="55"/>
+      <c r="CO2" s="55"/>
+      <c r="CP2" s="55"/>
+      <c r="CQ2" s="55"/>
+      <c r="CR2" s="55"/>
+      <c r="CS2" s="55"/>
+      <c r="CT2" s="55"/>
+      <c r="CU2" s="55"/>
+      <c r="CV2" s="55"/>
+      <c r="CW2" s="55"/>
+      <c r="CX2" s="55"/>
+      <c r="CY2" s="55"/>
+      <c r="CZ2" s="55"/>
+      <c r="DA2" s="55"/>
+      <c r="DB2" s="55">
         <v>2</v>
       </c>
-      <c r="DC2" s="57"/>
-      <c r="DD2" s="57"/>
-      <c r="DE2" s="57"/>
-      <c r="DF2" s="57"/>
-      <c r="DG2" s="57"/>
-      <c r="DH2" s="57"/>
-      <c r="DI2" s="57"/>
-      <c r="DJ2" s="57"/>
-      <c r="DK2" s="57"/>
-      <c r="DL2" s="57"/>
-      <c r="DM2" s="57"/>
-      <c r="DN2" s="57"/>
-      <c r="DO2" s="57"/>
-      <c r="DP2" s="57"/>
-      <c r="DQ2" s="57"/>
-      <c r="DR2" s="57"/>
-      <c r="DS2" s="57"/>
-      <c r="DT2" s="57"/>
-      <c r="DU2" s="57"/>
-      <c r="DV2" s="57"/>
-      <c r="DW2" s="57"/>
-      <c r="DX2" s="57"/>
-      <c r="DY2" s="57"/>
+      <c r="DC2" s="55"/>
+      <c r="DD2" s="55"/>
+      <c r="DE2" s="55"/>
+      <c r="DF2" s="55"/>
+      <c r="DG2" s="55"/>
+      <c r="DH2" s="55"/>
+      <c r="DI2" s="55"/>
+      <c r="DJ2" s="55"/>
+      <c r="DK2" s="55"/>
+      <c r="DL2" s="55"/>
+      <c r="DM2" s="55"/>
+      <c r="DN2" s="55"/>
+      <c r="DO2" s="55"/>
+      <c r="DP2" s="55"/>
+      <c r="DQ2" s="55"/>
+      <c r="DR2" s="55"/>
+      <c r="DS2" s="55"/>
+      <c r="DT2" s="55"/>
+      <c r="DU2" s="55"/>
+      <c r="DV2" s="55"/>
+      <c r="DW2" s="55"/>
+      <c r="DX2" s="55"/>
+      <c r="DY2" s="55"/>
       <c r="DZ2" s="2"/>
       <c r="EA2" s="2"/>
       <c r="EB2" s="2"/>
@@ -1469,11 +1367,11 @@
       <c r="EG2" s="2"/>
     </row>
     <row r="3" spans="1:137" ht="12.75">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="1">
         <v>24</v>
       </c>
@@ -1928,7 +1826,7 @@
       <c r="DH4" s="24"/>
     </row>
     <row r="5" spans="1:137" ht="15" customHeight="1">
-      <c r="A5" s="14">
+      <c r="A5" s="53">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1998,7 +1896,7 @@
       <c r="DH5" s="24"/>
     </row>
     <row r="6" spans="1:137" ht="15" customHeight="1">
-      <c r="A6" s="14">
+      <c r="A6" s="53">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2064,7 +1962,7 @@
       <c r="DH6" s="24"/>
     </row>
     <row r="7" spans="1:137" ht="15" customHeight="1">
-      <c r="A7" s="14">
+      <c r="A7" s="53">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2131,7 +2029,7 @@
       <c r="DH7" s="24"/>
     </row>
     <row r="8" spans="1:137" ht="15" customHeight="1">
-      <c r="A8" s="14">
+      <c r="A8" s="53">
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -2144,7 +2042,7 @@
         <v>44926</v>
       </c>
       <c r="E8" s="1">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="N8" s="19"/>
       <c r="P8" s="20"/>
@@ -2204,7 +2102,7 @@
       <c r="DN8" s="20"/>
     </row>
     <row r="9" spans="1:137" ht="15" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="53">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2272,7 +2170,7 @@
       <c r="DH9" s="24"/>
     </row>
     <row r="10" spans="1:137" ht="15" customHeight="1">
-      <c r="A10" s="14">
+      <c r="A10" s="53">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2338,7 +2236,7 @@
       <c r="DH10" s="24"/>
     </row>
     <row r="11" spans="1:137" ht="15" customHeight="1">
-      <c r="A11" s="14">
+      <c r="A11" s="53">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2406,8 +2304,8 @@
       <c r="DH11" s="24"/>
     </row>
     <row r="12" spans="1:137" ht="15" customHeight="1">
-      <c r="A12" s="14">
-        <v>11</v>
+      <c r="A12" s="53">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -2416,10 +2314,10 @@
         <v>44872</v>
       </c>
       <c r="D12" s="3">
-        <v>44925</v>
+        <v>44908</v>
       </c>
       <c r="E12" s="1">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N12" s="19"/>
       <c r="P12" s="20"/>
@@ -2460,23 +2358,11 @@
       <c r="BB12" s="32"/>
       <c r="BC12" s="32"/>
       <c r="BD12" s="32"/>
-      <c r="BE12" s="32"/>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="31"/>
-      <c r="BH12" s="31"/>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="31"/>
-      <c r="BK12" s="31"/>
-      <c r="BL12" s="32"/>
-      <c r="BM12" s="31"/>
-      <c r="BN12" s="31"/>
-      <c r="BO12" s="31"/>
-      <c r="BP12" s="31"/>
-      <c r="BQ12" s="31"/>
-      <c r="BR12" s="31"/>
-      <c r="BS12" s="32"/>
-      <c r="BT12" s="32"/>
-      <c r="BU12" s="32"/>
+      <c r="BE12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="20"/>
+      <c r="BU12" s="20"/>
       <c r="BV12" s="20"/>
       <c r="BW12" s="20"/>
       <c r="BX12" s="20"/>
@@ -2513,42 +2399,80 @@
       <c r="DH12" s="24"/>
     </row>
     <row r="13" spans="1:137" ht="15" customHeight="1">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>22</v>
+      <c r="A13" s="53">
+        <v>10</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="3">
-        <v>44563</v>
+        <v>44909</v>
       </c>
       <c r="D13" s="3">
-        <v>44567</v>
+        <v>44910</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" s="19"/>
       <c r="P13" s="20"/>
       <c r="W13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AM13" s="19"/>
-      <c r="AX13" s="20"/>
-      <c r="BB13" s="20"/>
-      <c r="BC13" s="20"/>
-      <c r="BD13" s="20"/>
-      <c r="BE13" s="20"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="54"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="54"/>
+      <c r="BE13" s="41"/>
+      <c r="BF13" s="41"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="54"/>
+      <c r="BI13" s="54"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
       <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="20"/>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="20"/>
+      <c r="BR13" s="20"/>
       <c r="BS13" s="20"/>
       <c r="BT13" s="20"/>
       <c r="BU13" s="20"/>
       <c r="BV13" s="20"/>
       <c r="BW13" s="20"/>
-      <c r="BX13" s="45"/>
-      <c r="BY13" s="45"/>
-      <c r="BZ13" s="45"/>
-      <c r="CA13" s="45"/>
-      <c r="CB13" s="45"/>
+      <c r="BX13" s="20"/>
+      <c r="BY13" s="20"/>
+      <c r="BZ13" s="20"/>
+      <c r="CA13" s="20"/>
+      <c r="CB13" s="20"/>
       <c r="CC13" s="20"/>
       <c r="CD13" s="20"/>
       <c r="CE13" s="20"/>
@@ -2556,39 +2480,22 @@
       <c r="CG13" s="20"/>
       <c r="CH13" s="20"/>
       <c r="CI13" s="20"/>
-      <c r="CJ13" s="20"/>
-      <c r="CK13" s="20"/>
-      <c r="CL13" s="20"/>
-      <c r="CM13" s="20"/>
-      <c r="CN13" s="20"/>
-      <c r="CO13" s="20"/>
-      <c r="CP13" s="20"/>
-      <c r="CQ13" s="20"/>
-      <c r="CR13" s="20"/>
-      <c r="CS13" s="20"/>
-      <c r="CT13" s="20"/>
-      <c r="CU13" s="20"/>
-      <c r="CV13" s="20"/>
-      <c r="CW13" s="20"/>
-      <c r="CX13" s="20"/>
-      <c r="CY13" s="20"/>
-      <c r="CZ13" s="20"/>
-      <c r="DA13" s="20"/>
-      <c r="DB13" s="20"/>
+      <c r="CJ13"/>
+      <c r="CK13"/>
       <c r="DH13" s="24"/>
     </row>
     <row r="14" spans="1:137" ht="15" customHeight="1">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>23</v>
+      <c r="A14" s="53">
+        <v>11</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="3">
-        <v>44570</v>
+        <v>44911</v>
       </c>
       <c r="D14" s="3">
-        <v>44571</v>
+        <v>44912</v>
       </c>
       <c r="E14" s="14">
         <v>2</v>
@@ -2603,7 +2510,19 @@
       <c r="BC14" s="20"/>
       <c r="BD14" s="20"/>
       <c r="BE14" s="20"/>
+      <c r="BF14" s="20"/>
+      <c r="BG14" s="42"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
       <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="20"/>
+      <c r="BO14" s="20"/>
+      <c r="BP14" s="20"/>
+      <c r="BQ14" s="20"/>
+      <c r="BR14" s="20"/>
       <c r="BS14" s="20"/>
       <c r="BT14" s="20"/>
       <c r="BU14" s="20"/>
@@ -2612,46 +2531,26 @@
       <c r="BX14" s="20"/>
       <c r="BY14" s="20"/>
       <c r="BZ14" s="20"/>
+      <c r="CA14" s="20"/>
+      <c r="CB14" s="20"/>
       <c r="CC14" s="20"/>
       <c r="CD14" s="20"/>
-      <c r="CE14" s="46"/>
-      <c r="CF14" s="46"/>
-      <c r="CG14" s="20"/>
-      <c r="CH14" s="20"/>
-      <c r="CI14" s="20"/>
-      <c r="CJ14" s="20"/>
-      <c r="CK14" s="20"/>
-      <c r="CL14" s="20"/>
-      <c r="CM14" s="20"/>
-      <c r="CN14" s="20"/>
-      <c r="CO14" s="20"/>
-      <c r="CP14" s="20"/>
-      <c r="CQ14" s="20"/>
-      <c r="CR14" s="20"/>
-      <c r="CS14" s="20"/>
-      <c r="CT14" s="20"/>
-      <c r="CU14" s="20"/>
-      <c r="CV14" s="20"/>
-      <c r="CW14" s="20"/>
-      <c r="CX14" s="20"/>
-      <c r="CY14" s="20"/>
-      <c r="CZ14" s="20"/>
-      <c r="DA14" s="20"/>
-      <c r="DB14" s="20"/>
+      <c r="CE14"/>
+      <c r="CF14"/>
       <c r="DH14" s="24"/>
     </row>
     <row r="15" spans="1:137" ht="15.75" customHeight="1">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>24</v>
+      <c r="A15" s="53">
+        <v>12</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="3">
-        <v>44571</v>
+        <v>44912</v>
       </c>
       <c r="D15" s="3">
-        <v>44572</v>
+        <v>44913</v>
       </c>
       <c r="E15" s="14">
         <v>2</v>
@@ -2666,7 +2565,19 @@
       <c r="BC15" s="20"/>
       <c r="BD15" s="20"/>
       <c r="BE15" s="20"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="45"/>
+      <c r="BI15" s="45"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
       <c r="BL15" s="20"/>
+      <c r="BM15" s="20"/>
+      <c r="BN15" s="20"/>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="20"/>
+      <c r="BQ15" s="20"/>
+      <c r="BR15" s="20"/>
       <c r="BS15" s="20"/>
       <c r="BT15" s="20"/>
       <c r="BU15" s="20"/>
@@ -2675,51 +2586,50 @@
       <c r="BX15" s="20"/>
       <c r="BY15" s="20"/>
       <c r="BZ15" s="20"/>
+      <c r="CA15" s="20"/>
+      <c r="CB15" s="20"/>
       <c r="CC15" s="20"/>
       <c r="CD15" s="20"/>
-      <c r="CF15" s="49"/>
-      <c r="CG15" s="49"/>
-      <c r="CH15" s="20"/>
-      <c r="CI15" s="20"/>
-      <c r="CJ15" s="20"/>
-      <c r="CK15" s="20"/>
-      <c r="CL15" s="20"/>
-      <c r="CM15" s="20"/>
-      <c r="CN15" s="20"/>
-      <c r="CO15" s="20"/>
-      <c r="CP15" s="20"/>
-      <c r="CQ15" s="20"/>
-      <c r="CR15" s="20"/>
-      <c r="CS15" s="20"/>
-      <c r="CT15" s="20"/>
-      <c r="CU15" s="20"/>
-      <c r="CV15" s="20"/>
-      <c r="CW15" s="20"/>
-      <c r="CX15" s="20"/>
-      <c r="CY15" s="20"/>
-      <c r="CZ15" s="20"/>
-      <c r="DA15" s="20"/>
-      <c r="DB15" s="20"/>
+      <c r="CE15"/>
+      <c r="CF15"/>
       <c r="DH15" s="24"/>
     </row>
     <row r="16" spans="1:137" ht="15" customHeight="1">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>26</v>
+      <c r="A16" s="53">
+        <v>13</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="3">
-        <v>44572</v>
+        <v>44913</v>
       </c>
       <c r="D16" s="3">
-        <v>44574</v>
+        <v>44611</v>
       </c>
       <c r="E16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" s="19"/>
       <c r="P16" s="20"/>
+      <c r="BE16" s="20"/>
+      <c r="BF16" s="20"/>
+      <c r="BG16" s="20"/>
+      <c r="BH16" s="20"/>
+      <c r="BI16" s="48"/>
+      <c r="BJ16" s="48"/>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="20"/>
+      <c r="BM16" s="20"/>
+      <c r="BN16" s="20"/>
+      <c r="BO16" s="20"/>
+      <c r="BP16" s="20"/>
+      <c r="BQ16" s="20"/>
+      <c r="BR16" s="20"/>
+      <c r="BS16" s="20"/>
+      <c r="BT16" s="20"/>
+      <c r="BU16" s="20"/>
+      <c r="BV16" s="20"/>
       <c r="BW16" s="20"/>
       <c r="BX16" s="20"/>
       <c r="BY16" s="20"/>
@@ -2728,98 +2638,69 @@
       <c r="CB16" s="20"/>
       <c r="CC16" s="20"/>
       <c r="CD16" s="20"/>
-      <c r="CE16" s="20"/>
-      <c r="CF16" s="20"/>
-      <c r="CG16" s="52"/>
-      <c r="CH16" s="52"/>
-      <c r="CI16" s="52"/>
-      <c r="CJ16" s="20"/>
-      <c r="CK16" s="20"/>
-      <c r="CL16" s="20"/>
-      <c r="CM16" s="20"/>
-      <c r="CN16" s="20"/>
-      <c r="CO16" s="20"/>
-      <c r="CP16" s="20"/>
-      <c r="CQ16" s="20"/>
-      <c r="CR16" s="20"/>
-      <c r="CS16" s="20"/>
-      <c r="CT16" s="20"/>
-      <c r="CU16" s="20"/>
-      <c r="CV16" s="20"/>
-      <c r="CW16" s="20"/>
-      <c r="CX16" s="20"/>
-      <c r="CY16" s="20"/>
-      <c r="CZ16" s="20"/>
-      <c r="DA16" s="20"/>
-      <c r="DB16" s="20"/>
+      <c r="CE16"/>
+      <c r="CF16"/>
       <c r="DH16" s="24"/>
     </row>
     <row r="17" spans="1:129" ht="15" customHeight="1">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>25</v>
+      <c r="A17" s="53">
+        <v>14</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="3">
-        <v>44577</v>
+        <v>44915</v>
       </c>
       <c r="D17" s="3">
-        <v>44577</v>
+        <v>44916</v>
       </c>
       <c r="E17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="19"/>
       <c r="P17" s="20"/>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="20"/>
+      <c r="BG17" s="20"/>
+      <c r="BH17" s="20"/>
+      <c r="BI17" s="20"/>
+      <c r="BJ17" s="20"/>
+      <c r="BK17" s="46"/>
+      <c r="BL17" s="46"/>
+      <c r="BM17" s="20"/>
+      <c r="BN17" s="20"/>
+      <c r="BO17" s="20"/>
+      <c r="BP17" s="20"/>
+      <c r="BQ17" s="20"/>
+      <c r="BR17" s="20"/>
+      <c r="BS17" s="20"/>
+      <c r="BT17" s="20"/>
+      <c r="BU17" s="20"/>
+      <c r="BV17" s="20"/>
       <c r="BW17" s="20"/>
       <c r="BX17" s="20"/>
       <c r="BY17" s="20"/>
       <c r="BZ17" s="20"/>
       <c r="CA17" s="20"/>
-      <c r="CB17" s="20"/>
-      <c r="CC17" s="20"/>
-      <c r="CD17" s="20"/>
-      <c r="CE17" s="20"/>
-      <c r="CF17" s="20"/>
-      <c r="CG17" s="20"/>
-      <c r="CH17" s="20"/>
-      <c r="CI17" s="20"/>
-      <c r="CJ17" s="20"/>
-      <c r="CK17" s="20"/>
-      <c r="CL17" s="50"/>
-      <c r="CM17" s="20"/>
-      <c r="CN17" s="20"/>
-      <c r="CO17" s="20"/>
-      <c r="CP17" s="20"/>
-      <c r="CQ17" s="20"/>
-      <c r="CR17" s="20"/>
-      <c r="CS17" s="20"/>
-      <c r="CT17" s="20"/>
-      <c r="CU17" s="20"/>
-      <c r="CV17" s="20"/>
-      <c r="CW17" s="20"/>
-      <c r="CX17" s="20"/>
-      <c r="CY17" s="20"/>
-      <c r="CZ17" s="20"/>
-      <c r="DA17" s="20"/>
-      <c r="DB17" s="20"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
       <c r="DH17" s="24"/>
     </row>
     <row r="18" spans="1:129" ht="15" customHeight="1">
-      <c r="A18" s="14">
-        <v>26</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>30</v>
+      <c r="A18" s="53">
+        <v>15</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="3">
-        <v>44578</v>
+        <v>44916</v>
       </c>
       <c r="D18" s="12">
-        <v>44579</v>
-      </c>
-      <c r="E18" s="56">
+        <v>44917</v>
+      </c>
+      <c r="E18" s="52">
         <v>2</v>
       </c>
       <c r="N18" s="19"/>
@@ -2828,11 +2709,21 @@
       <c r="AD18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="BC18" s="20"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="20"/>
       <c r="BG18" s="20"/>
       <c r="BH18" s="20"/>
       <c r="BI18" s="20"/>
       <c r="BJ18" s="20"/>
+      <c r="BK18" s="20"/>
+      <c r="BL18" s="58"/>
+      <c r="BM18" s="58"/>
+      <c r="BN18" s="20"/>
+      <c r="BO18" s="54"/>
+      <c r="BP18" s="20"/>
       <c r="BQ18" s="20"/>
+      <c r="BR18" s="20"/>
+      <c r="BS18" s="20"/>
       <c r="BT18" s="20"/>
       <c r="BU18" s="20"/>
       <c r="BV18" s="20"/>
@@ -2841,50 +2732,25 @@
       <c r="BY18" s="20"/>
       <c r="BZ18" s="20"/>
       <c r="CA18" s="20"/>
-      <c r="CB18" s="20"/>
-      <c r="CC18" s="20"/>
-      <c r="CD18" s="20"/>
-      <c r="CE18" s="20"/>
-      <c r="CF18" s="20"/>
-      <c r="CG18" s="20"/>
-      <c r="CH18" s="20"/>
-      <c r="CI18" s="20"/>
-      <c r="CJ18" s="20"/>
-      <c r="CK18" s="20"/>
-      <c r="CL18" s="20"/>
-      <c r="CM18" s="43"/>
-      <c r="CN18" s="43"/>
-      <c r="CO18" s="20"/>
-      <c r="CP18" s="20"/>
-      <c r="CQ18" s="20"/>
-      <c r="CR18" s="20"/>
-      <c r="CS18" s="20"/>
-      <c r="CT18" s="20"/>
-      <c r="CU18" s="20"/>
-      <c r="CV18" s="20"/>
-      <c r="CW18" s="20"/>
-      <c r="CX18" s="20"/>
-      <c r="CY18" s="20"/>
-      <c r="CZ18" s="20"/>
-      <c r="DA18" s="20"/>
-      <c r="DB18" s="20"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
       <c r="DH18" s="24"/>
     </row>
     <row r="19" spans="1:129" ht="15" customHeight="1">
-      <c r="A19" s="14">
-        <v>27</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>29</v>
+      <c r="A19" s="53">
+        <v>16</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>26</v>
       </c>
       <c r="C19" s="3">
-        <v>44579</v>
+        <v>44917</v>
       </c>
       <c r="D19" s="3">
-        <v>44581</v>
+        <v>44918</v>
       </c>
       <c r="E19" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="19"/>
       <c r="P19" s="20"/>
@@ -2892,59 +2758,45 @@
       <c r="AD19" s="20"/>
       <c r="AK19" s="20"/>
       <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
       <c r="BH19" s="20"/>
       <c r="BI19" s="20"/>
       <c r="BJ19" s="20"/>
       <c r="BK19" s="20"/>
+      <c r="BL19" s="20"/>
+      <c r="BM19" s="59"/>
+      <c r="BN19" s="59"/>
+      <c r="BO19" s="54"/>
+      <c r="BP19" s="20"/>
+      <c r="BQ19" s="20"/>
       <c r="BR19" s="20"/>
+      <c r="BS19" s="20"/>
+      <c r="BT19" s="20"/>
       <c r="BU19" s="20"/>
       <c r="BV19" s="20"/>
       <c r="BW19" s="20"/>
-      <c r="BX19" s="20"/>
-      <c r="BY19" s="20"/>
-      <c r="BZ19" s="20"/>
       <c r="CA19" s="20"/>
-      <c r="CB19" s="20"/>
-      <c r="CC19" s="20"/>
-      <c r="CD19" s="20"/>
-      <c r="CE19" s="20"/>
-      <c r="CF19" s="20"/>
-      <c r="CG19" s="20"/>
-      <c r="CH19" s="20"/>
-      <c r="CI19" s="20"/>
-      <c r="CJ19" s="20"/>
-      <c r="CK19" s="20"/>
-      <c r="CL19" s="20"/>
-      <c r="CM19" s="20"/>
-      <c r="CN19" s="42"/>
-      <c r="CO19" s="42"/>
-      <c r="CP19" s="42"/>
-      <c r="CQ19" s="20"/>
-      <c r="CR19" s="20"/>
-      <c r="CS19" s="20"/>
-      <c r="CT19" s="20"/>
-      <c r="CU19" s="20"/>
-      <c r="CV19" s="20"/>
-      <c r="CW19" s="20"/>
-      <c r="CX19" s="20"/>
-      <c r="DB19" s="20"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
       <c r="DH19" s="24"/>
     </row>
     <row r="20" spans="1:129" ht="15" customHeight="1">
-      <c r="A20" s="14">
-        <v>28</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>28</v>
+      <c r="A20" s="53">
+        <v>17</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="3">
-        <v>44586</v>
+        <v>44921</v>
       </c>
       <c r="D20" s="3">
-        <v>44588</v>
+        <v>44921</v>
       </c>
       <c r="E20" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" s="19"/>
       <c r="P20" s="20"/>
@@ -2952,54 +2804,43 @@
       <c r="AD20" s="20"/>
       <c r="AK20" s="20"/>
       <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="20"/>
       <c r="BH20" s="20"/>
       <c r="BI20" s="20"/>
       <c r="BJ20" s="20"/>
       <c r="BK20" s="20"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="15"/>
+      <c r="BO20" s="54"/>
+      <c r="BP20" s="20"/>
+      <c r="BQ20" s="39"/>
       <c r="BR20" s="20"/>
-      <c r="BU20" s="20"/>
-      <c r="BV20" s="20"/>
-      <c r="BW20" s="20"/>
+      <c r="BS20" s="54"/>
+      <c r="BT20" s="54"/>
+      <c r="BU20" s="15"/>
+      <c r="BV20" s="15"/>
       <c r="BX20" s="20"/>
-      <c r="BY20" s="20"/>
-      <c r="BZ20" s="20"/>
-      <c r="CA20" s="20"/>
-      <c r="CB20" s="20"/>
-      <c r="CC20" s="20"/>
-      <c r="CD20" s="20"/>
-      <c r="CE20" s="20"/>
-      <c r="CF20" s="20"/>
-      <c r="CG20" s="20"/>
-      <c r="CH20" s="20"/>
-      <c r="CI20" s="20"/>
-      <c r="CJ20" s="20"/>
-      <c r="CK20" s="20"/>
-      <c r="CL20" s="20"/>
-      <c r="CQ20" s="20"/>
-      <c r="CR20" s="20"/>
-      <c r="CS20" s="20"/>
-      <c r="CT20" s="20"/>
-      <c r="CU20" s="43"/>
-      <c r="CV20" s="43"/>
-      <c r="CW20" s="43"/>
-      <c r="CX20" s="20"/>
-      <c r="DB20" s="20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
       <c r="DH20" s="24"/>
     </row>
     <row r="21" spans="1:129" ht="15" customHeight="1">
-      <c r="A21" s="14">
-        <v>29</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>27</v>
+      <c r="A21" s="53">
+        <v>18</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="3">
-        <v>44587</v>
+        <v>44922</v>
       </c>
       <c r="D21" s="3">
-        <v>44592</v>
-      </c>
-      <c r="E21" s="55">
+        <v>44924</v>
+      </c>
+      <c r="E21" s="51">
         <v>3</v>
       </c>
       <c r="N21" s="19"/>
@@ -3008,29 +2849,35 @@
       <c r="AD21" s="20"/>
       <c r="AK21" s="20"/>
       <c r="AX21" s="20"/>
-      <c r="BJ21" s="20"/>
-      <c r="BN21" s="20"/>
-      <c r="BO21" s="20"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+      <c r="BM21" s="15"/>
+      <c r="BN21" s="15"/>
+      <c r="BO21" s="54"/>
       <c r="BP21" s="20"/>
       <c r="BQ21" s="20"/>
-      <c r="CQ21" s="20"/>
-      <c r="CR21" s="20"/>
-      <c r="CS21" s="20"/>
-      <c r="CT21" s="20"/>
-      <c r="CU21" s="20"/>
-      <c r="CV21" s="37"/>
-      <c r="CW21" s="41"/>
-      <c r="CX21" s="20"/>
-      <c r="DA21" s="37"/>
-      <c r="DC21" s="20"/>
+      <c r="BR21" s="35"/>
+      <c r="BS21" s="38"/>
+      <c r="BT21" s="35"/>
+      <c r="BU21" s="15"/>
+      <c r="BV21" s="15"/>
+      <c r="BX21"/>
+      <c r="BY21" s="20"/>
+      <c r="BZ21"/>
       <c r="DH21" s="24"/>
     </row>
     <row r="22" spans="1:129" ht="15" customHeight="1">
-      <c r="A22" s="14">
-        <v>30</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>21</v>
+      <c r="A22" s="53">
+        <v>19</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="C22" s="3">
         <v>44593</v>
@@ -3039,7 +2886,7 @@
         <v>44595</v>
       </c>
       <c r="E22" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" s="19"/>
       <c r="P22" s="20"/>
@@ -3047,23 +2894,34 @@
       <c r="AD22" s="20"/>
       <c r="AK22" s="20"/>
       <c r="AX22" s="20"/>
-      <c r="BJ22" s="20"/>
-      <c r="BN22" s="20"/>
-      <c r="BO22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="20"/>
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="20"/>
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
+      <c r="BM22" s="15"/>
+      <c r="BN22" s="15"/>
+      <c r="BO22" s="54"/>
       <c r="BP22" s="20"/>
       <c r="BQ22" s="20"/>
-      <c r="CQ22" s="20"/>
-      <c r="CR22" s="20"/>
-      <c r="CS22" s="20"/>
-      <c r="CT22" s="20"/>
-      <c r="CU22" s="20"/>
-      <c r="CV22" s="20"/>
-      <c r="CW22" s="20"/>
-      <c r="CX22" s="20"/>
-      <c r="DB22" s="43"/>
-      <c r="DC22" s="43"/>
-      <c r="DD22" s="43"/>
-      <c r="DE22" s="15"/>
+      <c r="BR22" s="20"/>
+      <c r="BS22" s="20"/>
+      <c r="BT22" s="20"/>
+      <c r="BU22" s="39"/>
+      <c r="BV22" s="15"/>
+      <c r="CC22" s="54"/>
+      <c r="CD22" s="54"/>
+      <c r="CE22" s="54"/>
+      <c r="CF22" s="54"/>
+      <c r="CG22" s="54"/>
+      <c r="CH22" s="54"/>
+      <c r="CI22" s="54"/>
+      <c r="CJ22" s="54"/>
+      <c r="CK22" s="54"/>
+      <c r="CL22" s="54"/>
       <c r="DF22" s="15"/>
       <c r="DG22" s="15"/>
       <c r="DH22" s="15"/>
@@ -3079,20 +2937,20 @@
       <c r="DR22" s="15"/>
     </row>
     <row r="23" spans="1:129" ht="15" customHeight="1">
-      <c r="A23" s="14">
-        <v>31</v>
-      </c>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="53">
         <v>20</v>
       </c>
+      <c r="B23" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="C23" s="3">
-        <v>44598</v>
+        <v>44925</v>
       </c>
       <c r="D23" s="3">
-        <v>44598</v>
-      </c>
-      <c r="E23" s="14">
-        <v>1</v>
+        <v>44925</v>
+      </c>
+      <c r="E23" s="53">
+        <v>14</v>
       </c>
       <c r="N23" s="19"/>
       <c r="P23" s="20"/>
@@ -3105,39 +2963,36 @@
       <c r="BO23" s="20"/>
       <c r="BP23" s="20"/>
       <c r="BQ23" s="20"/>
-      <c r="DB23" s="15"/>
-      <c r="DC23" s="15"/>
-      <c r="DD23" s="15"/>
-      <c r="DE23" s="15"/>
-      <c r="DF23" s="15"/>
-      <c r="DG23" s="37"/>
-      <c r="DH23" s="15"/>
-      <c r="DI23" s="15"/>
-      <c r="DJ23" s="15"/>
-      <c r="DK23" s="15"/>
-      <c r="DL23" s="15"/>
-      <c r="DM23" s="15"/>
-      <c r="DN23" s="15"/>
-      <c r="DO23" s="24"/>
-      <c r="DP23" s="15"/>
-      <c r="DQ23" s="15"/>
-      <c r="DR23" s="15"/>
+      <c r="BX23" s="57"/>
+      <c r="BY23" s="57"/>
+      <c r="BZ23" s="57"/>
+      <c r="CA23" s="57"/>
+      <c r="CB23" s="57"/>
+      <c r="CC23" s="57"/>
+      <c r="CD23" s="57"/>
+      <c r="CE23" s="57"/>
+      <c r="CF23" s="57"/>
+      <c r="CG23" s="57"/>
+      <c r="CH23" s="57"/>
+      <c r="CI23" s="57"/>
+      <c r="CJ23" s="57"/>
+      <c r="CK23" s="57"/>
     </row>
     <row r="24" spans="1:129" ht="15" customHeight="1">
-      <c r="A24" s="14">
-        <v>32</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>18</v>
+      <c r="A24" s="53">
+        <v>21</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="C24" s="3">
-        <v>44599</v>
+        <v>44577</v>
       </c>
       <c r="D24" s="3">
-        <v>44600</v>
+        <v>44581</v>
       </c>
       <c r="E24" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" s="19"/>
       <c r="P24" s="20"/>
@@ -3146,44 +3001,44 @@
       <c r="AK24" s="20"/>
       <c r="AX24" s="20"/>
       <c r="BB24" s="20"/>
-      <c r="BM24" s="20"/>
-      <c r="BQ24" s="20"/>
+      <c r="BC24" s="20"/>
+      <c r="BN24" s="20"/>
       <c r="BR24" s="20"/>
       <c r="BS24" s="20"/>
       <c r="BT24" s="20"/>
-      <c r="DB24" s="15"/>
-      <c r="DC24" s="15"/>
+      <c r="BU24" s="20"/>
+      <c r="CL24" s="60"/>
+      <c r="CM24" s="60"/>
+      <c r="CN24" s="60"/>
+      <c r="CO24" s="60"/>
+      <c r="CP24" s="60"/>
+      <c r="CR24" s="20"/>
+      <c r="CS24"/>
+      <c r="CT24"/>
+      <c r="CU24"/>
+      <c r="CX24"/>
+      <c r="CY24"/>
+      <c r="CZ24"/>
+      <c r="DA24"/>
       <c r="DD24" s="15"/>
       <c r="DE24" s="15"/>
       <c r="DF24" s="15"/>
-      <c r="DG24" s="15"/>
-      <c r="DH24" s="43"/>
-      <c r="DI24" s="43"/>
-      <c r="DJ24" s="15"/>
-      <c r="DK24" s="15"/>
-      <c r="DL24" s="15"/>
-      <c r="DM24" s="15"/>
-      <c r="DN24" s="15"/>
-      <c r="DO24" s="24"/>
-      <c r="DP24" s="15"/>
-      <c r="DQ24" s="15"/>
-      <c r="DR24" s="15"/>
     </row>
     <row r="25" spans="1:129" ht="15" customHeight="1">
-      <c r="A25" s="14">
-        <v>33</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>19</v>
+      <c r="A25" s="53">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C25" s="3">
-        <v>44601</v>
-      </c>
-      <c r="D25" s="12">
-        <v>44602</v>
-      </c>
-      <c r="E25" s="14">
-        <v>2</v>
+        <v>44586</v>
+      </c>
+      <c r="D25" s="3">
+        <v>44588</v>
+      </c>
+      <c r="E25" s="13">
+        <v>5</v>
       </c>
       <c r="N25" s="19"/>
       <c r="P25" s="20"/>
@@ -3192,44 +3047,43 @@
       <c r="AK25" s="20"/>
       <c r="AX25" s="20"/>
       <c r="BB25" s="20"/>
-      <c r="BM25" s="20"/>
-      <c r="BQ25" s="20"/>
+      <c r="BC25" s="20"/>
+      <c r="BN25" s="20"/>
       <c r="BR25" s="20"/>
       <c r="BS25" s="20"/>
       <c r="BT25" s="20"/>
-      <c r="DB25" s="15"/>
-      <c r="DC25" s="15"/>
-      <c r="DD25" s="15"/>
+      <c r="BU25" s="20"/>
+      <c r="CL25" s="20"/>
+      <c r="CM25"/>
+      <c r="CN25"/>
+      <c r="CO25"/>
+      <c r="CP25"/>
+      <c r="CQ25"/>
+      <c r="CR25"/>
+      <c r="CU25" s="61"/>
+      <c r="CV25" s="61"/>
+      <c r="CW25" s="61"/>
+      <c r="CX25"/>
+      <c r="CY25"/>
+      <c r="CZ25"/>
+      <c r="DA25"/>
       <c r="DE25" s="15"/>
-      <c r="DF25" s="15"/>
-      <c r="DG25" s="15"/>
-      <c r="DH25" s="15"/>
-      <c r="DI25" s="15"/>
-      <c r="DJ25" s="41"/>
-      <c r="DK25" s="37"/>
-      <c r="DL25" s="15"/>
-      <c r="DM25" s="20"/>
-      <c r="DN25" s="15"/>
-      <c r="DO25" s="15"/>
-      <c r="DP25" s="15"/>
-      <c r="DQ25" s="15"/>
-      <c r="DR25" s="15"/>
     </row>
     <row r="26" spans="1:129" ht="15" customHeight="1">
-      <c r="A26" s="14">
-        <v>34</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>17</v>
+      <c r="A26" s="53">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C26" s="3">
-        <v>44605</v>
+        <v>44591</v>
       </c>
       <c r="D26" s="3">
-        <v>44607</v>
+        <v>44592</v>
       </c>
       <c r="E26" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" s="19"/>
       <c r="P26" s="20"/>
@@ -3244,39 +3098,38 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="20"/>
       <c r="BU26" s="20"/>
-      <c r="DB26" s="15"/>
-      <c r="DC26" s="15"/>
-      <c r="DD26" s="15"/>
-      <c r="DE26" s="15"/>
-      <c r="DF26" s="15"/>
-      <c r="DG26" s="15"/>
-      <c r="DH26" s="15"/>
-      <c r="DI26" s="15"/>
-      <c r="DJ26" s="15"/>
-      <c r="DK26" s="15"/>
-      <c r="DL26" s="15"/>
-      <c r="DM26" s="20"/>
-      <c r="DN26" s="39"/>
-      <c r="DO26" s="39"/>
-      <c r="DP26" s="39"/>
-      <c r="DQ26" s="15"/>
-      <c r="DR26" s="15"/>
+      <c r="CL26" s="20"/>
+      <c r="CM26"/>
+      <c r="CN26"/>
+      <c r="CO26"/>
+      <c r="CP26"/>
+      <c r="CQ26"/>
+      <c r="CR26"/>
+      <c r="CS26"/>
+      <c r="CT26"/>
+      <c r="CU26"/>
+      <c r="CV26"/>
+      <c r="CW26"/>
+      <c r="CX26"/>
+      <c r="CY26"/>
+      <c r="CZ26" s="62"/>
+      <c r="DA26" s="62"/>
     </row>
     <row r="27" spans="1:129" ht="15" customHeight="1">
-      <c r="A27" s="14">
-        <v>35</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>13</v>
+      <c r="A27" s="53">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C27" s="3">
-        <v>44608</v>
+        <v>44616</v>
       </c>
       <c r="D27" s="3">
-        <v>44609</v>
-      </c>
-      <c r="E27" s="13">
-        <v>2</v>
+        <v>44616</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
       </c>
       <c r="N27" s="19"/>
       <c r="P27" s="20"/>
@@ -3285,84 +3138,104 @@
       <c r="AK27" s="20"/>
       <c r="AX27" s="20"/>
       <c r="BB27" s="20"/>
-      <c r="BC27" s="20"/>
-      <c r="BN27" s="20"/>
+      <c r="BM27" s="20"/>
+      <c r="BQ27" s="20"/>
       <c r="BR27" s="20"/>
       <c r="BS27" s="20"/>
       <c r="BT27" s="20"/>
-      <c r="BU27" s="20"/>
-      <c r="DG27" s="20"/>
-      <c r="DN27" s="15"/>
-      <c r="DO27" s="15"/>
-      <c r="DP27" s="15"/>
-      <c r="DQ27" s="37"/>
-      <c r="DR27" s="37"/>
-    </row>
-    <row r="28" spans="1:129" ht="15" customHeight="1">
-      <c r="A28" s="14">
-        <v>36</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="3">
-        <v>44612</v>
-      </c>
-      <c r="D28" s="3">
-        <v>44615</v>
-      </c>
-      <c r="E28" s="14">
-        <v>4</v>
-      </c>
-      <c r="N28" s="19"/>
-      <c r="P28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AX28" s="20"/>
-      <c r="BB28" s="20"/>
-      <c r="BC28" s="20"/>
-      <c r="BN28" s="20"/>
-      <c r="BR28" s="20"/>
-      <c r="BS28" s="20"/>
-      <c r="BT28" s="20"/>
-      <c r="BU28" s="20"/>
-      <c r="DG28" s="20"/>
-      <c r="DU28" s="36"/>
-      <c r="DV28" s="36"/>
-      <c r="DW28" s="36"/>
-      <c r="DX28" s="36"/>
-    </row>
-    <row r="29" spans="1:129" ht="15" customHeight="1">
-      <c r="A29" s="14">
-        <v>37</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="3">
-        <v>44616</v>
-      </c>
-      <c r="D29" s="3">
-        <v>44616</v>
-      </c>
-      <c r="E29" s="14">
-        <v>1</v>
-      </c>
-      <c r="N29" s="19"/>
-      <c r="P29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AX29" s="20"/>
-      <c r="BB29" s="20"/>
-      <c r="BM29" s="20"/>
-      <c r="BQ29" s="20"/>
-      <c r="BR29" s="20"/>
-      <c r="BS29" s="20"/>
-      <c r="BT29" s="20"/>
-      <c r="DF29" s="20"/>
-      <c r="DY29" s="35"/>
+      <c r="DF27" s="20"/>
+      <c r="DY27" s="63"/>
+    </row>
+    <row r="30" spans="1:129" ht="15.75" customHeight="1">
+      <c r="DB30" s="15"/>
+      <c r="DC30" s="15"/>
+    </row>
+    <row r="31" spans="1:129" ht="15.75" customHeight="1">
+      <c r="DB31" s="15"/>
+      <c r="DC31" s="15"/>
+    </row>
+    <row r="32" spans="1:129" ht="15.75" customHeight="1">
+      <c r="DB32" s="15"/>
+      <c r="DC32" s="15"/>
+    </row>
+    <row r="33" spans="106:116" ht="15.75" customHeight="1">
+      <c r="DB33" s="15"/>
+      <c r="DC33" s="15"/>
+      <c r="DD33" s="15"/>
+      <c r="DE33" s="15"/>
+      <c r="DF33" s="15"/>
+      <c r="DG33" s="15"/>
+      <c r="DH33" s="15"/>
+      <c r="DI33" s="24"/>
+      <c r="DJ33" s="15"/>
+      <c r="DK33" s="15"/>
+      <c r="DL33" s="15"/>
+    </row>
+    <row r="34" spans="106:116" ht="15.75" customHeight="1">
+      <c r="DB34" s="54"/>
+      <c r="DC34" s="54"/>
+      <c r="DD34" s="54"/>
+      <c r="DE34" s="54"/>
+      <c r="DF34" s="54"/>
+      <c r="DG34" s="15"/>
+      <c r="DH34" s="15"/>
+      <c r="DI34" s="24"/>
+      <c r="DJ34" s="15"/>
+      <c r="DK34" s="15"/>
+      <c r="DL34" s="15"/>
+    </row>
+    <row r="35" spans="106:116" ht="15.75" customHeight="1">
+      <c r="DB35" s="54"/>
+      <c r="DC35" s="54"/>
+      <c r="DD35" s="54"/>
+      <c r="DE35" s="54"/>
+      <c r="DF35" s="54"/>
+      <c r="DG35" s="20"/>
+      <c r="DH35" s="15"/>
+      <c r="DI35" s="15"/>
+      <c r="DJ35" s="15"/>
+      <c r="DK35" s="15"/>
+      <c r="DL35" s="15"/>
+    </row>
+    <row r="36" spans="106:116" ht="15.75" customHeight="1">
+      <c r="DB36" s="54"/>
+      <c r="DC36" s="54"/>
+      <c r="DD36" s="54"/>
+      <c r="DE36" s="54"/>
+      <c r="DF36" s="54"/>
+    </row>
+    <row r="37" spans="106:116" ht="15.75" customHeight="1">
+      <c r="DB37" s="54"/>
+      <c r="DC37" s="54"/>
+      <c r="DD37" s="54"/>
+      <c r="DE37" s="54"/>
+      <c r="DF37" s="54"/>
+    </row>
+    <row r="38" spans="106:116" ht="15.75" customHeight="1">
+      <c r="DB38" s="54"/>
+      <c r="DC38" s="54"/>
+      <c r="DD38" s="54"/>
+      <c r="DE38" s="54"/>
+      <c r="DF38" s="54"/>
+    </row>
+    <row r="39" spans="106:116" ht="15.75" customHeight="1">
+      <c r="DB39" s="54"/>
+      <c r="DC39" s="54"/>
+      <c r="DD39" s="54"/>
+      <c r="DE39" s="54"/>
+      <c r="DF39" s="54"/>
+    </row>
+    <row r="40" spans="106:116" ht="15.75" customHeight="1">
+      <c r="DB40" s="15"/>
+      <c r="DC40" s="15"/>
+    </row>
+    <row r="41" spans="106:116" ht="15.75" customHeight="1">
+      <c r="DB41" s="15"/>
+      <c r="DC41" s="15"/>
+    </row>
+    <row r="42" spans="106:116" ht="15.75" customHeight="1">
+      <c r="DB42" s="15"/>
+      <c r="DC42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
